--- a/data/pca/factorExposure/factorExposure_2016-06-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01100008624637973</v>
+        <v>0.01326571357196896</v>
       </c>
       <c r="C2">
-        <v>-0.05336795867823744</v>
+        <v>0.03826935747463171</v>
       </c>
       <c r="D2">
-        <v>-0.04203625613171417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05689148299901019</v>
+      </c>
+      <c r="E2">
+        <v>0.08573741004224543</v>
+      </c>
+      <c r="F2">
+        <v>0.08507706972363648</v>
+      </c>
+      <c r="G2">
+        <v>-0.003210051503289122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03871572914450511</v>
+        <v>0.02478659701803172</v>
       </c>
       <c r="C3">
-        <v>-0.1208167268110029</v>
+        <v>0.07025908499402056</v>
       </c>
       <c r="D3">
-        <v>-0.09902772746020236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07635050977676329</v>
+      </c>
+      <c r="E3">
+        <v>0.06929433610519158</v>
+      </c>
+      <c r="F3">
+        <v>-0.02499702469227209</v>
+      </c>
+      <c r="G3">
+        <v>-0.04161237824829848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05820920600007514</v>
+        <v>0.05685157849219111</v>
       </c>
       <c r="C4">
-        <v>-0.06234663951852731</v>
+        <v>0.06541095884124677</v>
       </c>
       <c r="D4">
-        <v>-0.02982066875721967</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05170562926346734</v>
+      </c>
+      <c r="E4">
+        <v>0.08251470957318083</v>
+      </c>
+      <c r="F4">
+        <v>0.06158863408027678</v>
+      </c>
+      <c r="G4">
+        <v>-0.07633913628682071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03886016287673982</v>
+        <v>0.03487067358058053</v>
       </c>
       <c r="C6">
-        <v>-0.03775330069961377</v>
+        <v>0.02918527366052635</v>
       </c>
       <c r="D6">
-        <v>-0.03431800842933328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05907068522607681</v>
+      </c>
+      <c r="E6">
+        <v>0.08601554829629796</v>
+      </c>
+      <c r="F6">
+        <v>0.04773942700359184</v>
+      </c>
+      <c r="G6">
+        <v>-0.06073295061905191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02113046781771112</v>
+        <v>0.01717372788510025</v>
       </c>
       <c r="C7">
-        <v>-0.04835044825356575</v>
+        <v>0.03998425504189056</v>
       </c>
       <c r="D7">
-        <v>0.009236288750621085</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03254023650912313</v>
+      </c>
+      <c r="E7">
+        <v>0.05960389613956932</v>
+      </c>
+      <c r="F7">
+        <v>0.09397227555971514</v>
+      </c>
+      <c r="G7">
+        <v>-0.06813356965823425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.004937528676260091</v>
+        <v>0.002478827904515259</v>
       </c>
       <c r="C8">
-        <v>-0.03620135636606459</v>
+        <v>0.03208218129452042</v>
       </c>
       <c r="D8">
-        <v>-0.02717328135064473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0309435802408639</v>
+      </c>
+      <c r="E8">
+        <v>0.05801217386852584</v>
+      </c>
+      <c r="F8">
+        <v>0.03177446517573326</v>
+      </c>
+      <c r="G8">
+        <v>-0.0294147484521228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03248324610015973</v>
+        <v>0.03648867528037995</v>
       </c>
       <c r="C9">
-        <v>-0.04954920301730021</v>
+        <v>0.05250469020504177</v>
       </c>
       <c r="D9">
-        <v>-0.01253440044925317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03624298711465896</v>
+      </c>
+      <c r="E9">
+        <v>0.06924101946103521</v>
+      </c>
+      <c r="F9">
+        <v>0.07360134519119321</v>
+      </c>
+      <c r="G9">
+        <v>-0.0667745508552873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08270287166807638</v>
+        <v>0.1052380630773476</v>
       </c>
       <c r="C10">
-        <v>0.1871452945042204</v>
+        <v>-0.1940991004713009</v>
       </c>
       <c r="D10">
-        <v>0.00380818541701219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0113981135373556</v>
+      </c>
+      <c r="E10">
+        <v>0.04222205064083542</v>
+      </c>
+      <c r="F10">
+        <v>0.02519117760400458</v>
+      </c>
+      <c r="G10">
+        <v>-0.02563239806513323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03996994511983872</v>
+        <v>0.03558679393257001</v>
       </c>
       <c r="C11">
-        <v>-0.0540314532113188</v>
+        <v>0.04944793113587678</v>
       </c>
       <c r="D11">
-        <v>-0.009173849883806545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03044952246388217</v>
+      </c>
+      <c r="E11">
+        <v>0.02336163105801669</v>
+      </c>
+      <c r="F11">
+        <v>0.05668036867402577</v>
+      </c>
+      <c r="G11">
+        <v>-0.05208805464533989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04185690433243051</v>
+        <v>0.03762612193589056</v>
       </c>
       <c r="C12">
-        <v>-0.04950751299786785</v>
+        <v>0.04677044981965962</v>
       </c>
       <c r="D12">
-        <v>-0.0007861796435626736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02411518191007614</v>
+      </c>
+      <c r="E12">
+        <v>0.0316487652023686</v>
+      </c>
+      <c r="F12">
+        <v>0.05860106774309858</v>
+      </c>
+      <c r="G12">
+        <v>-0.04920642133229042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01198074780491092</v>
+        <v>0.01020964279353579</v>
       </c>
       <c r="C13">
-        <v>-0.05475860393994154</v>
+        <v>0.04347107654692386</v>
       </c>
       <c r="D13">
-        <v>-0.008971660529819809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04257943191930181</v>
+      </c>
+      <c r="E13">
+        <v>0.0945562885439593</v>
+      </c>
+      <c r="F13">
+        <v>0.08405675729002239</v>
+      </c>
+      <c r="G13">
+        <v>-0.07540773735405103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00619647395469399</v>
+        <v>0.003625799640279496</v>
       </c>
       <c r="C14">
-        <v>-0.0425003852374383</v>
+        <v>0.03430185222936748</v>
       </c>
       <c r="D14">
-        <v>0.01308594018485299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0222420343496071</v>
+      </c>
+      <c r="E14">
+        <v>0.0477092559812489</v>
+      </c>
+      <c r="F14">
+        <v>0.09353658396610728</v>
+      </c>
+      <c r="G14">
+        <v>-0.05370931126120627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.000140397786830079</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004840889820102726</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006451630287372805</v>
+      </c>
+      <c r="E15">
+        <v>0.003889812012282283</v>
+      </c>
+      <c r="F15">
+        <v>0.0065751091596029</v>
+      </c>
+      <c r="G15">
+        <v>-0.004368319239560272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03685290269475028</v>
+        <v>0.03357834893161919</v>
       </c>
       <c r="C16">
-        <v>-0.05025093699840363</v>
+        <v>0.04586253621589746</v>
       </c>
       <c r="D16">
-        <v>-0.005277718815931411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02352773007349046</v>
+      </c>
+      <c r="E16">
+        <v>0.03790989795588941</v>
+      </c>
+      <c r="F16">
+        <v>0.06299030465376614</v>
+      </c>
+      <c r="G16">
+        <v>-0.03821794333196853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02003883596304849</v>
+        <v>0.01556543872353198</v>
       </c>
       <c r="C19">
-        <v>-0.06459260818074312</v>
+        <v>0.04704501201216393</v>
       </c>
       <c r="D19">
-        <v>-0.09154423742083738</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08932112046348972</v>
+      </c>
+      <c r="E19">
+        <v>0.1093773941159094</v>
+      </c>
+      <c r="F19">
+        <v>0.07922092489706804</v>
+      </c>
+      <c r="G19">
+        <v>-0.0243764870766662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01520178846575749</v>
+        <v>0.01246530695956394</v>
       </c>
       <c r="C20">
-        <v>-0.04884358727161076</v>
+        <v>0.03957047359273082</v>
       </c>
       <c r="D20">
-        <v>-0.009974350158012008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03083624195828986</v>
+      </c>
+      <c r="E20">
+        <v>0.07506506213336023</v>
+      </c>
+      <c r="F20">
+        <v>0.06920861877893897</v>
+      </c>
+      <c r="G20">
+        <v>-0.04992608349125006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.00880682689071691</v>
+        <v>0.008330963472550088</v>
       </c>
       <c r="C21">
-        <v>-0.05188754330100825</v>
+        <v>0.04298675354068217</v>
       </c>
       <c r="D21">
-        <v>-0.03735938770002974</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05736662894874033</v>
+      </c>
+      <c r="E21">
+        <v>0.1148209372079095</v>
+      </c>
+      <c r="F21">
+        <v>0.1106188463837557</v>
+      </c>
+      <c r="G21">
+        <v>-0.07648739980647999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0008916766720282733</v>
+        <v>0.002510657335833835</v>
       </c>
       <c r="C22">
-        <v>-0.0006841421231099031</v>
+        <v>0.02606032242525775</v>
       </c>
       <c r="D22">
-        <v>-0.002063144256630342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04138432872885477</v>
+      </c>
+      <c r="E22">
+        <v>0.03942938119275836</v>
+      </c>
+      <c r="F22">
+        <v>0.000791402270481389</v>
+      </c>
+      <c r="G22">
+        <v>-0.05274177191030195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0008973388478033097</v>
+        <v>0.002583553414488</v>
       </c>
       <c r="C23">
-        <v>-0.0006842431244521163</v>
+        <v>0.02621929174313423</v>
       </c>
       <c r="D23">
-        <v>-0.002069195484565912</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04101737404704909</v>
+      </c>
+      <c r="E23">
+        <v>0.03968665211974493</v>
+      </c>
+      <c r="F23">
+        <v>0.0004935070623279907</v>
+      </c>
+      <c r="G23">
+        <v>-0.05282122551956425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03386230687603211</v>
+        <v>0.0336372245101188</v>
       </c>
       <c r="C24">
-        <v>-0.05153219552033343</v>
+        <v>0.05311066384712842</v>
       </c>
       <c r="D24">
-        <v>-0.00576572059152747</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02353636040970501</v>
+      </c>
+      <c r="E24">
+        <v>0.03873704065660959</v>
+      </c>
+      <c r="F24">
+        <v>0.0663699909396009</v>
+      </c>
+      <c r="G24">
+        <v>-0.04875109686931485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04686836337038042</v>
+        <v>0.04276807237548236</v>
       </c>
       <c r="C25">
-        <v>-0.06344689554482109</v>
+        <v>0.0575656587640799</v>
       </c>
       <c r="D25">
-        <v>0.004094558570553232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02311373563686657</v>
+      </c>
+      <c r="E25">
+        <v>0.02908564982590744</v>
+      </c>
+      <c r="F25">
+        <v>0.06088954089059687</v>
+      </c>
+      <c r="G25">
+        <v>-0.06420252180932097</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01499613661009646</v>
+        <v>0.01424187427412665</v>
       </c>
       <c r="C26">
-        <v>-0.01931385266536858</v>
+        <v>0.01809435742688115</v>
       </c>
       <c r="D26">
-        <v>-0.001585671672153503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02192835389332021</v>
+      </c>
+      <c r="E26">
+        <v>0.04826538213690487</v>
+      </c>
+      <c r="F26">
+        <v>0.06912172388420275</v>
+      </c>
+      <c r="G26">
+        <v>-0.02669716041701246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09764649031111575</v>
+        <v>0.1402192039200719</v>
       </c>
       <c r="C28">
-        <v>0.2402996776425478</v>
+        <v>-0.2478666289911518</v>
       </c>
       <c r="D28">
-        <v>0.003671680347264924</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0271780232408851</v>
+      </c>
+      <c r="E28">
+        <v>0.05738105186710986</v>
+      </c>
+      <c r="F28">
+        <v>0.04156471947023886</v>
+      </c>
+      <c r="G28">
+        <v>-0.04577920584091714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00581129647787423</v>
+        <v>0.004480751943848829</v>
       </c>
       <c r="C29">
-        <v>-0.03476584531155501</v>
+        <v>0.03039503584746716</v>
       </c>
       <c r="D29">
-        <v>0.01717173182962577</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01574088251938282</v>
+      </c>
+      <c r="E29">
+        <v>0.04611042346785116</v>
+      </c>
+      <c r="F29">
+        <v>0.08249731739987298</v>
+      </c>
+      <c r="G29">
+        <v>-0.06253461337023128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04367593204133484</v>
+        <v>0.0396926193281817</v>
       </c>
       <c r="C30">
-        <v>-0.05606404103931736</v>
+        <v>0.05786884687913486</v>
       </c>
       <c r="D30">
-        <v>-0.06560643424507992</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09691548089708966</v>
+      </c>
+      <c r="E30">
+        <v>0.07484026178301018</v>
+      </c>
+      <c r="F30">
+        <v>0.08623319802274142</v>
+      </c>
+      <c r="G30">
+        <v>-0.03951204189073948</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05689504891713722</v>
+        <v>0.05636450253246798</v>
       </c>
       <c r="C31">
-        <v>-0.0461406519784766</v>
+        <v>0.06200558510897124</v>
       </c>
       <c r="D31">
-        <v>0.02913044679745162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01526571772772557</v>
+      </c>
+      <c r="E31">
+        <v>0.06516238930943705</v>
+      </c>
+      <c r="F31">
+        <v>0.04607595318750856</v>
+      </c>
+      <c r="G31">
+        <v>-0.07764720653866224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001238664597956965</v>
+        <v>0.005222635051390647</v>
       </c>
       <c r="C32">
-        <v>-0.04008333582141128</v>
+        <v>0.03329189254689258</v>
       </c>
       <c r="D32">
-        <v>-0.04737202445444707</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05241973244281604</v>
+      </c>
+      <c r="E32">
+        <v>0.0569348744318151</v>
+      </c>
+      <c r="F32">
+        <v>0.07174252550945304</v>
+      </c>
+      <c r="G32">
+        <v>-0.03219915241783327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02858288959964861</v>
+        <v>0.02462685465623494</v>
       </c>
       <c r="C33">
-        <v>-0.06465451843186265</v>
+        <v>0.05569744273291732</v>
       </c>
       <c r="D33">
-        <v>-0.03965738613590451</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06992636967543214</v>
+      </c>
+      <c r="E33">
+        <v>0.08759112297524548</v>
+      </c>
+      <c r="F33">
+        <v>0.09713273545978646</v>
+      </c>
+      <c r="G33">
+        <v>-0.0765291702979493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04386931468446077</v>
+        <v>0.03977423582573818</v>
       </c>
       <c r="C34">
-        <v>-0.06821972204005683</v>
+        <v>0.06560590229472574</v>
       </c>
       <c r="D34">
-        <v>-0.01022251781640324</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03622479361771587</v>
+      </c>
+      <c r="E34">
+        <v>0.01102282959319294</v>
+      </c>
+      <c r="F34">
+        <v>0.06846271171708863</v>
+      </c>
+      <c r="G34">
+        <v>-0.05050839928276166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01570971151545538</v>
+        <v>0.01395758898359394</v>
       </c>
       <c r="C36">
-        <v>-0.0176833736130311</v>
+        <v>0.01374723946249313</v>
       </c>
       <c r="D36">
-        <v>0.004922144095326196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02059621698889601</v>
+      </c>
+      <c r="E36">
+        <v>0.05588997186467019</v>
+      </c>
+      <c r="F36">
+        <v>0.06487375377156045</v>
+      </c>
+      <c r="G36">
+        <v>-0.04778018744969773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02921334503472366</v>
+        <v>0.02297442749872541</v>
       </c>
       <c r="C38">
-        <v>-0.03060209699378784</v>
+        <v>0.02327483424276701</v>
       </c>
       <c r="D38">
-        <v>0.01491947220993117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01768695332302383</v>
+      </c>
+      <c r="E38">
+        <v>0.04751967063006351</v>
+      </c>
+      <c r="F38">
+        <v>0.05235123070615966</v>
+      </c>
+      <c r="G38">
+        <v>-0.03242913471912659</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0447873750856245</v>
+        <v>0.03878993769595005</v>
       </c>
       <c r="C39">
-        <v>-0.06718703770168515</v>
+        <v>0.06506872336431745</v>
       </c>
       <c r="D39">
-        <v>-0.01301470782637386</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04762243895596646</v>
+      </c>
+      <c r="E39">
+        <v>0.04403295374025275</v>
+      </c>
+      <c r="F39">
+        <v>0.08646297718601179</v>
+      </c>
+      <c r="G39">
+        <v>-0.03751347566594779</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01232563818652265</v>
+        <v>0.01291896204126962</v>
       </c>
       <c r="C40">
-        <v>-0.05217557710285869</v>
+        <v>0.03770284226114189</v>
       </c>
       <c r="D40">
-        <v>-0.0168951462123205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0278353655440197</v>
+      </c>
+      <c r="E40">
+        <v>0.08138640670529365</v>
+      </c>
+      <c r="F40">
+        <v>0.05772306664516783</v>
+      </c>
+      <c r="G40">
+        <v>-0.08697257405040869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02151405363830244</v>
+        <v>0.01902865168192001</v>
       </c>
       <c r="C41">
-        <v>-0.01490327440745883</v>
+        <v>0.01110497575270781</v>
       </c>
       <c r="D41">
-        <v>-0.002491143587984888</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01494312429538039</v>
+      </c>
+      <c r="E41">
+        <v>0.05707668108374281</v>
+      </c>
+      <c r="F41">
+        <v>0.05918170658316439</v>
+      </c>
+      <c r="G41">
+        <v>-0.04008757774806943</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03864197932640631</v>
+        <v>0.02906462453244282</v>
       </c>
       <c r="C43">
-        <v>-0.03560540487215214</v>
+        <v>0.02558719660412793</v>
       </c>
       <c r="D43">
-        <v>-0.02915128840936435</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04135223588554832</v>
+      </c>
+      <c r="E43">
+        <v>0.07253040200997596</v>
+      </c>
+      <c r="F43">
+        <v>0.06083561121690972</v>
+      </c>
+      <c r="G43">
+        <v>-0.06457617019756579</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0116016430541074</v>
+        <v>0.01361087446152217</v>
       </c>
       <c r="C44">
-        <v>-0.06836959184509249</v>
+        <v>0.04888654835523539</v>
       </c>
       <c r="D44">
-        <v>-0.008752168138339681</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03082250309995072</v>
+      </c>
+      <c r="E44">
+        <v>0.08617364639879574</v>
+      </c>
+      <c r="F44">
+        <v>0.07028848653170129</v>
+      </c>
+      <c r="G44">
+        <v>-0.02957824717582966</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.00712815243208092</v>
+        <v>0.008072112848252627</v>
       </c>
       <c r="C46">
-        <v>-0.03030896032868002</v>
+        <v>0.02999541779007564</v>
       </c>
       <c r="D46">
-        <v>0.01882148330580449</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009157073019990272</v>
+      </c>
+      <c r="E46">
+        <v>0.05441384548751409</v>
+      </c>
+      <c r="F46">
+        <v>0.09688213602686013</v>
+      </c>
+      <c r="G46">
+        <v>-0.05993939008719123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08297736520324929</v>
+        <v>0.08767767087154223</v>
       </c>
       <c r="C47">
-        <v>-0.07286119866349994</v>
+        <v>0.08258533325553111</v>
       </c>
       <c r="D47">
-        <v>0.02582490987143375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02199433832057786</v>
+      </c>
+      <c r="E47">
+        <v>0.06714592151427927</v>
+      </c>
+      <c r="F47">
+        <v>0.0440194011971706</v>
+      </c>
+      <c r="G47">
+        <v>-0.07650002009989515</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01788377064116316</v>
+        <v>0.01614865732826821</v>
       </c>
       <c r="C48">
-        <v>-0.01599028544200983</v>
+        <v>0.01717517345394234</v>
       </c>
       <c r="D48">
-        <v>0.01734832729975041</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.009727294459206262</v>
+      </c>
+      <c r="E48">
+        <v>0.06592322229779553</v>
+      </c>
+      <c r="F48">
+        <v>0.0820242966887211</v>
+      </c>
+      <c r="G48">
+        <v>-0.05568447333914337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07925325477113816</v>
+        <v>0.06994168547390152</v>
       </c>
       <c r="C50">
-        <v>-0.08315400218996423</v>
+        <v>0.07681492370435453</v>
       </c>
       <c r="D50">
-        <v>0.02720034851615025</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.007546331894772706</v>
+      </c>
+      <c r="E50">
+        <v>0.07384045461913659</v>
+      </c>
+      <c r="F50">
+        <v>0.0222858594899755</v>
+      </c>
+      <c r="G50">
+        <v>-0.09339779583116785</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01410820790605609</v>
+        <v>0.009230632527334848</v>
       </c>
       <c r="C51">
-        <v>-0.05122120497020372</v>
+        <v>0.03211825284514737</v>
       </c>
       <c r="D51">
-        <v>-0.0300317800116598</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05123329395541502</v>
+      </c>
+      <c r="E51">
+        <v>0.04724117071256857</v>
+      </c>
+      <c r="F51">
+        <v>0.0823233873457173</v>
+      </c>
+      <c r="G51">
+        <v>-0.03365957753668512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08199918017010185</v>
+        <v>0.09441378114724748</v>
       </c>
       <c r="C53">
-        <v>-0.07810766289425042</v>
+        <v>0.08837947789002414</v>
       </c>
       <c r="D53">
-        <v>0.05084488844497027</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05384251572393928</v>
+      </c>
+      <c r="E53">
+        <v>0.06048547207261654</v>
+      </c>
+      <c r="F53">
+        <v>0.04135533830386438</v>
+      </c>
+      <c r="G53">
+        <v>-0.07915005701742171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03093338256660275</v>
+        <v>0.02703770734235653</v>
       </c>
       <c r="C54">
-        <v>-0.03807482193905699</v>
+        <v>0.03280259638697217</v>
       </c>
       <c r="D54">
-        <v>0.003297625040109449</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02395313605530726</v>
+      </c>
+      <c r="E54">
+        <v>0.05352599057614753</v>
+      </c>
+      <c r="F54">
+        <v>0.08687914458371486</v>
+      </c>
+      <c r="G54">
+        <v>-0.06115259157256138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07525161050233856</v>
+        <v>0.08576918930427736</v>
       </c>
       <c r="C55">
-        <v>-0.05936010663608777</v>
+        <v>0.07114305466456142</v>
       </c>
       <c r="D55">
-        <v>0.05413413936231025</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05710555115187175</v>
+      </c>
+      <c r="E55">
+        <v>0.04368118219763094</v>
+      </c>
+      <c r="F55">
+        <v>0.02315191034686967</v>
+      </c>
+      <c r="G55">
+        <v>-0.05951125231232208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1464412277424655</v>
+        <v>0.1484968249429279</v>
       </c>
       <c r="C56">
-        <v>-0.09485524368485554</v>
+        <v>0.1079378780456921</v>
       </c>
       <c r="D56">
-        <v>0.04728009318337024</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05411418708848986</v>
+      </c>
+      <c r="E56">
+        <v>0.04163654718401021</v>
+      </c>
+      <c r="F56">
+        <v>-0.002261231758377424</v>
+      </c>
+      <c r="G56">
+        <v>-0.04278336029680573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04558824763368528</v>
+        <v>0.02798195093965782</v>
       </c>
       <c r="C58">
-        <v>-0.02903923576419639</v>
+        <v>0.0251017074010154</v>
       </c>
       <c r="D58">
-        <v>-0.7465215304592528</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3831509346080007</v>
+      </c>
+      <c r="E58">
+        <v>0.6647909587931169</v>
+      </c>
+      <c r="F58">
+        <v>-0.4834972583296407</v>
+      </c>
+      <c r="G58">
+        <v>0.3117998473432679</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.136171119694357</v>
+        <v>0.1474677548128975</v>
       </c>
       <c r="C59">
-        <v>0.1954845400429004</v>
+        <v>-0.1861702606295088</v>
       </c>
       <c r="D59">
-        <v>-0.02568796827805787</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02593100028774799</v>
+      </c>
+      <c r="E59">
+        <v>0.02795920314490047</v>
+      </c>
+      <c r="F59">
+        <v>0.02882255049294076</v>
+      </c>
+      <c r="G59">
+        <v>0.02002792052309731</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3076718524720125</v>
+        <v>0.2791495809951113</v>
       </c>
       <c r="C60">
-        <v>-0.1107154771287982</v>
+        <v>0.1072779945190442</v>
       </c>
       <c r="D60">
-        <v>-0.1404256249038691</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2605225029575467</v>
+      </c>
+      <c r="E60">
+        <v>-0.2417971384122725</v>
+      </c>
+      <c r="F60">
+        <v>-0.07602555956301439</v>
+      </c>
+      <c r="G60">
+        <v>-0.03871320201299058</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04229419470299957</v>
+        <v>0.03994813459149505</v>
       </c>
       <c r="C61">
-        <v>-0.06558257649390278</v>
+        <v>0.06125160440977594</v>
       </c>
       <c r="D61">
-        <v>-0.009815138614830471</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03899875579171424</v>
+      </c>
+      <c r="E61">
+        <v>0.04728102503815494</v>
+      </c>
+      <c r="F61">
+        <v>0.06926032679478357</v>
+      </c>
+      <c r="G61">
+        <v>-0.05610920736252698</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01494770703740602</v>
+        <v>0.01438740337807346</v>
       </c>
       <c r="C63">
-        <v>-0.03505181914788677</v>
+        <v>0.03234206916064651</v>
       </c>
       <c r="D63">
-        <v>0.01403872750982303</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01536655706130875</v>
+      </c>
+      <c r="E63">
+        <v>0.05864909221077841</v>
+      </c>
+      <c r="F63">
+        <v>0.0542793303150433</v>
+      </c>
+      <c r="G63">
+        <v>-0.06491373470137674</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04859040093960861</v>
+        <v>0.05476712217965177</v>
       </c>
       <c r="C64">
-        <v>-0.04822044700886886</v>
+        <v>0.05803936267936687</v>
       </c>
       <c r="D64">
-        <v>0.001839280100015683</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.002892858429072008</v>
+      </c>
+      <c r="E64">
+        <v>0.03450596031974082</v>
+      </c>
+      <c r="F64">
+        <v>0.07311257503625077</v>
+      </c>
+      <c r="G64">
+        <v>-0.04847002627974707</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08201716934690087</v>
+        <v>0.06657599479404136</v>
       </c>
       <c r="C65">
-        <v>-0.02953109045899079</v>
+        <v>0.02854163269635002</v>
       </c>
       <c r="D65">
-        <v>-0.05951944309380829</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08608918296515358</v>
+      </c>
+      <c r="E65">
+        <v>0.05382282198328765</v>
+      </c>
+      <c r="F65">
+        <v>0.01065714108744353</v>
+      </c>
+      <c r="G65">
+        <v>-0.02044151403223211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05978827508705451</v>
+        <v>0.05018974244685149</v>
       </c>
       <c r="C66">
-        <v>-0.09256678797615647</v>
+        <v>0.08363479300284386</v>
       </c>
       <c r="D66">
-        <v>-0.0320269616624892</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.0719441967180164</v>
+      </c>
+      <c r="E66">
+        <v>0.05221725133598507</v>
+      </c>
+      <c r="F66">
+        <v>0.08335832955780877</v>
+      </c>
+      <c r="G66">
+        <v>-0.05492265307855577</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0511103348401309</v>
+        <v>0.04470789076523017</v>
       </c>
       <c r="C67">
-        <v>-0.03298898303306274</v>
+        <v>0.02897053892145752</v>
       </c>
       <c r="D67">
-        <v>0.02135593682737909</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.002709799196402</v>
+      </c>
+      <c r="E67">
+        <v>0.02536862722155939</v>
+      </c>
+      <c r="F67">
+        <v>0.03809123180587604</v>
+      </c>
+      <c r="G67">
+        <v>-0.02832321168636517</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1346492180482921</v>
+        <v>0.1555207157600226</v>
       </c>
       <c r="C68">
-        <v>0.2773763546312182</v>
+        <v>-0.2422770913507942</v>
       </c>
       <c r="D68">
-        <v>0.002726467191658056</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01557925291713652</v>
+      </c>
+      <c r="E68">
+        <v>0.03975519846675949</v>
+      </c>
+      <c r="F68">
+        <v>0.01189943739220183</v>
+      </c>
+      <c r="G68">
+        <v>-0.02905335235139493</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08976856410982027</v>
+        <v>0.0863668599125991</v>
       </c>
       <c r="C69">
-        <v>-0.07343741042045428</v>
+        <v>0.09025174422083244</v>
       </c>
       <c r="D69">
-        <v>0.04145001087922544</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01299130293868333</v>
+      </c>
+      <c r="E69">
+        <v>0.05256632925533143</v>
+      </c>
+      <c r="F69">
+        <v>0.07129168278117469</v>
+      </c>
+      <c r="G69">
+        <v>-0.06762076213879786</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1230777172540158</v>
+        <v>0.1473596904530063</v>
       </c>
       <c r="C71">
-        <v>0.2492613000352513</v>
+        <v>-0.2368021418156572</v>
       </c>
       <c r="D71">
-        <v>-0.02028137667583692</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.001138369217697963</v>
+      </c>
+      <c r="E71">
+        <v>0.06069682120544716</v>
+      </c>
+      <c r="F71">
+        <v>0.03019473719251366</v>
+      </c>
+      <c r="G71">
+        <v>-0.05832219477864492</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0903471547201123</v>
+        <v>0.0990467760986234</v>
       </c>
       <c r="C72">
-        <v>-0.05910238101099889</v>
+        <v>0.05975433722950602</v>
       </c>
       <c r="D72">
-        <v>-0.001107263567437883</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02601307960550757</v>
+      </c>
+      <c r="E72">
+        <v>0.02452819253943551</v>
+      </c>
+      <c r="F72">
+        <v>0.04891065415986221</v>
+      </c>
+      <c r="G72">
+        <v>-0.06436622590484235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4038819832859104</v>
+        <v>0.3417829818120099</v>
       </c>
       <c r="C73">
-        <v>-0.05803395586967765</v>
+        <v>0.07345070395853091</v>
       </c>
       <c r="D73">
-        <v>-0.3481888198029579</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5178651765331329</v>
+      </c>
+      <c r="E73">
+        <v>-0.4414608340639333</v>
+      </c>
+      <c r="F73">
+        <v>-0.2323604129557024</v>
+      </c>
+      <c r="G73">
+        <v>-0.03131391364610544</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1031501884374665</v>
+        <v>0.1088934057935926</v>
       </c>
       <c r="C74">
-        <v>-0.09628283097924251</v>
+        <v>0.09654260445750612</v>
       </c>
       <c r="D74">
-        <v>0.02525874979550186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04267850719663474</v>
+      </c>
+      <c r="E74">
+        <v>0.06252048147777606</v>
+      </c>
+      <c r="F74">
+        <v>-0.001567650281866296</v>
+      </c>
+      <c r="G74">
+        <v>-0.06734147964720789</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2522408415202416</v>
+        <v>0.2567921203708801</v>
       </c>
       <c r="C75">
-        <v>-0.105888354656229</v>
+        <v>0.1330112538047622</v>
       </c>
       <c r="D75">
-        <v>0.1115441376092712</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1493775993536668</v>
+      </c>
+      <c r="E75">
+        <v>0.04559174773556039</v>
+      </c>
+      <c r="F75">
+        <v>-0.04504626805088605</v>
+      </c>
+      <c r="G75">
+        <v>-0.01184192268703243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1116524532689624</v>
+        <v>0.1262524436020913</v>
       </c>
       <c r="C76">
-        <v>-0.08337915401679084</v>
+        <v>0.09645258636407641</v>
       </c>
       <c r="D76">
-        <v>0.0535680840022846</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07195196285509736</v>
+      </c>
+      <c r="E76">
+        <v>0.06779285346863537</v>
+      </c>
+      <c r="F76">
+        <v>0.02022918100120703</v>
+      </c>
+      <c r="G76">
+        <v>-0.05547356902331396</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07611295062458223</v>
+        <v>0.06203001940817565</v>
       </c>
       <c r="C77">
-        <v>-0.05609598805741527</v>
+        <v>0.06538459009572334</v>
       </c>
       <c r="D77">
-        <v>-0.04884601450880642</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0545926581754999</v>
+      </c>
+      <c r="E77">
+        <v>0.0974090569525711</v>
+      </c>
+      <c r="F77">
+        <v>0.1560214091370805</v>
+      </c>
+      <c r="G77">
+        <v>0.1070098695416346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04760273949568602</v>
+        <v>0.04455228531645782</v>
       </c>
       <c r="C78">
-        <v>-0.04920223188118344</v>
+        <v>0.05642643254338981</v>
       </c>
       <c r="D78">
-        <v>-0.01613494934423759</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0564172476105278</v>
+      </c>
+      <c r="E78">
+        <v>0.05389233457665592</v>
+      </c>
+      <c r="F78">
+        <v>0.07718403187786804</v>
+      </c>
+      <c r="G78">
+        <v>-0.04811629823084346</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02932624636941269</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04590131157038459</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07436887543064348</v>
+      </c>
+      <c r="E79">
+        <v>0.06004467626697735</v>
+      </c>
+      <c r="F79">
+        <v>-0.01011035100872744</v>
+      </c>
+      <c r="G79">
+        <v>-0.06141465722156154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03817057366676148</v>
+        <v>0.02967761528874328</v>
       </c>
       <c r="C80">
-        <v>-0.05227024549152535</v>
+        <v>0.05137324495656674</v>
       </c>
       <c r="D80">
-        <v>-0.02470880374369865</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03695654208873382</v>
+      </c>
+      <c r="E80">
+        <v>0.02022163452101507</v>
+      </c>
+      <c r="F80">
+        <v>0.04598065995263909</v>
+      </c>
+      <c r="G80">
+        <v>0.02499973385637966</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1378683070599094</v>
+        <v>0.1380545521013668</v>
       </c>
       <c r="C81">
-        <v>-0.07831108926247861</v>
+        <v>0.09546120358344747</v>
       </c>
       <c r="D81">
-        <v>0.07684624065391581</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1185955114288202</v>
+      </c>
+      <c r="E81">
+        <v>0.06897907483792778</v>
+      </c>
+      <c r="F81">
+        <v>-0.02719515346366844</v>
+      </c>
+      <c r="G81">
+        <v>-0.02202502671641536</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1726570830721594</v>
+        <v>0.2107561205804288</v>
       </c>
       <c r="C82">
-        <v>-0.09439115482873504</v>
+        <v>0.1589136446602614</v>
       </c>
       <c r="D82">
-        <v>0.1755162580198057</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2457937488331568</v>
+      </c>
+      <c r="E82">
+        <v>-0.01951022054393167</v>
+      </c>
+      <c r="F82">
+        <v>0.05401453514890663</v>
+      </c>
+      <c r="G82">
+        <v>-0.04310137815358908</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03923933562946506</v>
+        <v>0.02697553491936762</v>
       </c>
       <c r="C83">
-        <v>-0.03032715188278383</v>
+        <v>0.04259103930068468</v>
       </c>
       <c r="D83">
-        <v>-0.02691815514835139</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02745619519896432</v>
+      </c>
+      <c r="E83">
+        <v>0.02318512024270756</v>
+      </c>
+      <c r="F83">
+        <v>0.04676063992101404</v>
+      </c>
+      <c r="G83">
+        <v>0.001608280551109197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>8.330017856593871e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0007941448168492125</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001245118920086123</v>
+      </c>
+      <c r="E84">
+        <v>0.0007471170541927083</v>
+      </c>
+      <c r="F84">
+        <v>0.0009986272804553104</v>
+      </c>
+      <c r="G84">
+        <v>-0.0006035585351612642</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2197073468376878</v>
+        <v>0.202880060314387</v>
       </c>
       <c r="C85">
-        <v>-0.101789139320765</v>
+        <v>0.1163093959303663</v>
       </c>
       <c r="D85">
-        <v>0.1461007918811259</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1163877143960763</v>
+      </c>
+      <c r="E85">
+        <v>-0.02496637374352486</v>
+      </c>
+      <c r="F85">
+        <v>-0.09196939016913554</v>
+      </c>
+      <c r="G85">
+        <v>-0.05980795991502213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.005611729779456373</v>
+        <v>0.008544909082188138</v>
       </c>
       <c r="C86">
-        <v>-0.02851013784513411</v>
+        <v>0.02031762883836698</v>
       </c>
       <c r="D86">
-        <v>-0.04431495690502767</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05690632560700332</v>
+      </c>
+      <c r="E86">
+        <v>0.07213045074642302</v>
+      </c>
+      <c r="F86">
+        <v>0.1156602291250098</v>
+      </c>
+      <c r="G86">
+        <v>-0.05341853272379527</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02362199661042444</v>
+        <v>0.0239861095535816</v>
       </c>
       <c r="C87">
-        <v>-0.007228546154824568</v>
+        <v>0.01340830136451593</v>
       </c>
       <c r="D87">
-        <v>-0.08716183253805812</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07901035239287493</v>
+      </c>
+      <c r="E87">
+        <v>0.1248155134911825</v>
+      </c>
+      <c r="F87">
+        <v>0.08362384079742148</v>
+      </c>
+      <c r="G87">
+        <v>0.0001505916987127116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1031462428148849</v>
+        <v>0.09049273683734238</v>
       </c>
       <c r="C88">
-        <v>-0.07571398444905404</v>
+        <v>0.06421379655439817</v>
       </c>
       <c r="D88">
-        <v>0.02328713434206377</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.004240399544387214</v>
+      </c>
+      <c r="E88">
+        <v>0.04925344188180168</v>
+      </c>
+      <c r="F88">
+        <v>0.07716648491450795</v>
+      </c>
+      <c r="G88">
+        <v>-0.02019352422617011</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.194052717278687</v>
+        <v>0.2249550750769005</v>
       </c>
       <c r="C89">
-        <v>0.3704101513602494</v>
+        <v>-0.3756628723698077</v>
       </c>
       <c r="D89">
-        <v>0.02755770991126372</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02617704625592322</v>
+      </c>
+      <c r="E89">
+        <v>0.06542983266638987</v>
+      </c>
+      <c r="F89">
+        <v>0.09184715430104488</v>
+      </c>
+      <c r="G89">
+        <v>0.02608276821362394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1855815542042827</v>
+        <v>0.2043310895946063</v>
       </c>
       <c r="C90">
-        <v>0.3304098656849019</v>
+        <v>-0.3084430499020661</v>
       </c>
       <c r="D90">
-        <v>0.02880003978117996</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02742908081819197</v>
+      </c>
+      <c r="E90">
+        <v>0.0662349902978492</v>
+      </c>
+      <c r="F90">
+        <v>0.04018101916442816</v>
+      </c>
+      <c r="G90">
+        <v>-0.004393867013141235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1877760163170834</v>
+        <v>0.1854666748250703</v>
       </c>
       <c r="C91">
-        <v>-0.1288595249639961</v>
+        <v>0.1453908596031659</v>
       </c>
       <c r="D91">
-        <v>0.1048354456194809</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1258712955995586</v>
+      </c>
+      <c r="E91">
+        <v>0.04714749239911294</v>
+      </c>
+      <c r="F91">
+        <v>-0.01159065458079856</v>
+      </c>
+      <c r="G91">
+        <v>-0.02650231789263283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1683540782153259</v>
+        <v>0.1853781652539202</v>
       </c>
       <c r="C92">
-        <v>0.2803907122645894</v>
+        <v>-0.2869126871439555</v>
       </c>
       <c r="D92">
-        <v>0.02220104654595387</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02963504080205256</v>
+      </c>
+      <c r="E92">
+        <v>0.06990880836176849</v>
+      </c>
+      <c r="F92">
+        <v>0.07536109765929765</v>
+      </c>
+      <c r="G92">
+        <v>-0.01584245559423341</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2067202352083858</v>
+        <v>0.226982864329155</v>
       </c>
       <c r="C93">
-        <v>0.3351918971575476</v>
+        <v>-0.3166600428887349</v>
       </c>
       <c r="D93">
-        <v>0.02853517185326661</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02279082215730658</v>
+      </c>
+      <c r="E93">
+        <v>0.04105776225472156</v>
+      </c>
+      <c r="F93">
+        <v>0.02004591131884953</v>
+      </c>
+      <c r="G93">
+        <v>-0.03719699363235385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3290789857174312</v>
+        <v>0.3341162435998163</v>
       </c>
       <c r="C94">
-        <v>-0.1605775686041893</v>
+        <v>0.1945875349197854</v>
       </c>
       <c r="D94">
-        <v>0.3335693469923776</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4317660454932093</v>
+      </c>
+      <c r="E94">
+        <v>0.008991186696538341</v>
+      </c>
+      <c r="F94">
+        <v>-0.2487678595177037</v>
+      </c>
+      <c r="G94">
+        <v>0.4218974595636109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1124592173185831</v>
+        <v>0.08368610447919363</v>
       </c>
       <c r="C95">
-        <v>-0.07400755535522172</v>
+        <v>0.06527129907220199</v>
       </c>
       <c r="D95">
-        <v>-0.1314815979464412</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1833873090819848</v>
+      </c>
+      <c r="E95">
+        <v>-0.09550319019845578</v>
+      </c>
+      <c r="F95">
+        <v>0.5620191039921526</v>
+      </c>
+      <c r="G95">
+        <v>0.7120114495110104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1960538389151585</v>
+        <v>0.1876787904736051</v>
       </c>
       <c r="C98">
-        <v>-0.02370909497305786</v>
+        <v>0.04668876039216949</v>
       </c>
       <c r="D98">
-        <v>-0.1196084989436835</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1976083553355953</v>
+      </c>
+      <c r="E98">
+        <v>-0.1346616691467681</v>
+      </c>
+      <c r="F98">
+        <v>-0.06144822965214151</v>
+      </c>
+      <c r="G98">
+        <v>-0.08630472498420194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.005590404203137766</v>
+        <v>0.004459444145961082</v>
       </c>
       <c r="C101">
-        <v>-0.03477020566880654</v>
+        <v>0.03003985120948732</v>
       </c>
       <c r="D101">
-        <v>0.0168724456499697</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01569999620301256</v>
+      </c>
+      <c r="E101">
+        <v>0.04679983795399865</v>
+      </c>
+      <c r="F101">
+        <v>0.0832185924076243</v>
+      </c>
+      <c r="G101">
+        <v>-0.06231646159909051</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1244161702340981</v>
+        <v>0.1255993369071136</v>
       </c>
       <c r="C102">
-        <v>-0.07098906913418605</v>
+        <v>0.1015756526454688</v>
       </c>
       <c r="D102">
-        <v>0.0427538812466237</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05312630309783814</v>
+      </c>
+      <c r="E102">
+        <v>-0.01237454711593141</v>
+      </c>
+      <c r="F102">
+        <v>0.01773335825165389</v>
+      </c>
+      <c r="G102">
+        <v>-0.001155896863366093</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
